--- a/doc/home.xlsx
+++ b/doc/home.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoxiaoqiang\PycharmProjects\Work\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guoxiaoqiang\PycharmProjects\Work\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15AB16F-64BE-4DEC-BACC-E3C65F7159E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806F226E-6C9B-4D6F-9085-8372769A9669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="links" sheetId="1" r:id="rId1"/>
     <sheet name="deploy_plan" sheetId="2" r:id="rId2"/>
     <sheet name="level_info" sheetId="3" r:id="rId3"/>
+    <sheet name="others" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="186">
   <si>
     <t>发布相关</t>
   </si>
@@ -906,17 +907,47 @@
   </si>
   <si>
     <t>Elite Executive National Sales Director Emeritus/荣誉精英执行首席经销商</t>
+  </si>
+  <si>
+    <t>00030$00030bB</t>
+  </si>
+  <si>
+    <t>7426983826Tao!</t>
+  </si>
+  <si>
+    <t>BC: 000000000063 (ywms_2019/职级90)</t>
+  </si>
+  <si>
+    <t>foapp Dlguc65o</t>
+  </si>
+  <si>
+    <t>foapp Blguw62o</t>
+  </si>
+  <si>
+    <t>foapp Twf45w62o</t>
+  </si>
+  <si>
+    <t>oaWQ6uNaAlegV6M2siw7Ja56wGJ0</t>
+  </si>
+  <si>
+    <t>UAT:CHG0045109</t>
+  </si>
+  <si>
+    <t>PROD:CHG0045111</t>
+  </si>
+  <si>
+    <t>splnuk:eventtype="pcf_app" "MKOS.EmpApp.qa" "access_token"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -924,13 +955,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -944,7 +975,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1102,7 +1133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1125,38 +1156,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1166,6 +1173,36 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1454,19 +1491,19 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="97" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1474,7 +1511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1482,7 +1519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1490,7 +1527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1498,7 +1535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1506,7 +1543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1514,7 +1551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1522,13 +1559,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1536,7 +1573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1544,7 +1581,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1552,7 +1589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1560,7 +1597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -1568,7 +1605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1576,13 +1613,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1590,7 +1627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1598,7 +1635,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -1606,7 +1643,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1614,7 +1651,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1622,7 +1659,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1630,7 +1667,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -1658,19 +1695,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE9A2DC-23FC-4F94-B096-15F82E3F4689}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>43</v>
       </c>
@@ -1690,708 +1727,708 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+    <row r="2" spans="1:6">
+      <c r="A2" s="14">
         <v>202103</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+    <row r="4" spans="1:6">
+      <c r="A4" s="14">
         <v>202103</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13" t="s">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+    <row r="6" spans="1:6">
+      <c r="A6" s="14">
         <v>202103</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+    <row r="8" spans="1:6">
+      <c r="A8" s="14">
         <v>202103</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13" t="s">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+    <row r="10" spans="1:6">
+      <c r="A10" s="18">
         <v>202104</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19" t="s">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
+    <row r="12" spans="1:6">
+      <c r="A12" s="18">
         <v>202104</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19" t="s">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+    <row r="14" spans="1:6">
+      <c r="A14" s="18">
         <v>202104</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="21" t="s">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
+    <row r="16" spans="1:6">
+      <c r="A16" s="18">
         <v>202104</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19" t="s">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+    <row r="18" spans="1:6">
+      <c r="A18" s="14">
         <v>202105</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13" t="s">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+    <row r="20" spans="1:6">
+      <c r="A20" s="14">
         <v>202105</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13" t="s">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+    <row r="22" spans="1:6">
+      <c r="A22" s="14">
         <v>202105</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13" t="s">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+    <row r="24" spans="1:6">
+      <c r="A24" s="14">
         <v>202105</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13" t="s">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="14">
+    <row r="26" spans="1:6">
+      <c r="A26" s="18">
         <v>202106</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19" t="s">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="14">
+    <row r="28" spans="1:6">
+      <c r="A28" s="18">
         <v>202106</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19" t="s">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14">
+    <row r="30" spans="1:6" ht="15" customHeight="1">
+      <c r="A30" s="18">
         <v>202106</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="21" t="s">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14">
+    <row r="32" spans="1:6" ht="15" customHeight="1">
+      <c r="A32" s="18">
         <v>202106</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19" t="s">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
+    <row r="34" spans="1:6" ht="15" customHeight="1">
+      <c r="A34" s="14">
         <v>202107</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13" t="s">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A35" s="15"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
+    <row r="36" spans="1:6" ht="15" customHeight="1">
+      <c r="A36" s="14">
         <v>202107</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13" t="s">
+    <row r="37" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A37" s="15"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
+    <row r="38" spans="1:6" ht="18" customHeight="1">
+      <c r="A38" s="14">
         <v>202107</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13" t="s">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A39" s="15"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
+    <row r="40" spans="1:6" ht="18" customHeight="1">
+      <c r="A40" s="14">
         <v>202107</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13" t="s">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A41" s="15"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="9" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2406,15 +2443,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>140</v>
       </c>
@@ -2428,7 +2465,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>110</v>
       </c>
@@ -2442,7 +2479,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>120</v>
       </c>
@@ -2456,7 +2493,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>130</v>
       </c>
@@ -2470,7 +2507,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>220</v>
       </c>
@@ -2484,7 +2521,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>230</v>
       </c>
@@ -2498,7 +2535,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>240</v>
       </c>
@@ -2512,7 +2549,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>250</v>
       </c>
@@ -2526,7 +2563,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>260</v>
       </c>
@@ -2540,7 +2577,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>300</v>
       </c>
@@ -2554,7 +2591,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>420</v>
       </c>
@@ -2568,7 +2605,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>430</v>
       </c>
@@ -2582,7 +2619,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>440</v>
       </c>
@@ -2596,7 +2633,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>450</v>
       </c>
@@ -2610,7 +2647,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>460</v>
       </c>
@@ -2624,7 +2661,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>500</v>
       </c>
@@ -2638,7 +2675,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>620</v>
       </c>
@@ -2652,7 +2689,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>630</v>
       </c>
@@ -2666,7 +2703,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>640</v>
       </c>
@@ -2680,7 +2717,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>720</v>
       </c>
@@ -2692,7 +2729,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>730</v>
       </c>
@@ -2704,7 +2741,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>740</v>
       </c>
@@ -2716,7 +2753,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>820</v>
       </c>
@@ -2730,7 +2767,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>830</v>
       </c>
@@ -2744,7 +2781,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>840</v>
       </c>
@@ -2758,7 +2795,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>850</v>
       </c>
@@ -2776,4 +2813,72 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9756503D-9072-4AB6-A8AB-87CAE78CE02A}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>